--- a/Data/Mapping PPI 117grouping.xlsx
+++ b/Data/Mapping PPI 117grouping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Oslo\Master_Thesis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MasterThesis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9DA9F3-65A5-4C39-A3C5-79F32B48F0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10603E4C-8422-46EA-8BC1-77EF615358E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{EDFA86FE-7EC3-4BD5-B144-7D4F3B543281}"/>
+    <workbookView xWindow="-28920" yWindow="-435" windowWidth="29040" windowHeight="15840" xr2:uid="{EDFA86FE-7EC3-4BD5-B144-7D4F3B543281}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="146">
   <si>
     <t xml:space="preserve">[1] "Total"                                                                                    </t>
   </si>
@@ -395,247 +395,85 @@
     <t>[119] "970000 Activities of households as employers of domestic personnel"</t>
   </si>
   <si>
-    <t xml:space="preserve">1] "BC Mining and quarrying and manufacturing"                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [2] "B Mining and quarrying"                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [3] "C30 Manufacturing excl. manufacture of ships and other transport equipment"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [4] "C31 Manufacturing excl. Pharmaceuticals"                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [5] "C32 Manufacturing excl. manufacture of engines, windmills and pumps"         </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [6] "C Manufacturing"                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [7] "CA Manufacture of food products, beverages and tobacco"                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [8] "10001 Production of meat and meat products"                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [9] "10002 Processing and preserving of fish"                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[10] "10003 Manufacture of dairy products"                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[11] "10004 Manufacture of grain mill and bakery products"                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[12] "10005 Other manufacture of food products"                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[13] "11000 Manufacture of beverages"                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[14] "12000 Manufacture of tobacco products"                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[15] "CB Textiles and leather products"                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[16] "CC Wood and paper products and printing"                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[17] "CDE Manufacture of chemicals and oil refineries etc."                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[18] "CE Manufacture of chemicals"                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[19] "CF Pharmaceuticals"                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[20] "CG Manufacture of plastic, glass and concrete"                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[21] "22000 Manufacture of rubber and plastic products"                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[22] "23001 Manufacture of glass and ceramic products"                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[23] "23002 Manufacture of concrete and bricks"                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[24] "CH Basic metals and fabricated metal products"                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[25] "CI Manufacture of electronic components"                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[26] "CJ Electrical equipment"                                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[27] "CK Manufacture of machinery"                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[28] "28001 Manufacture of engines, windmills and pumps"                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[29] "28002 Manufacture of other machinery"                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[30] "CL Transport equipment"                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[31] "29000 Manufacture of motor vehicles and related parts"                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[32] "30000 Manufacture of ships and other transport equipment"                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[33] "CM Manufacture of furniture and other manufacturing"                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[34] "D Electricity, gas, steam and air conditioning supply"                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[35] "BCD Mining and quarrying and manufacturing and energy supply"                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[36] "Capital goods (MIG)"                                                         </t>
-  </si>
-  <si>
-    <t>[37] "Capital goods excl. manufacture of ships and other transport equipment (MIG)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[38] "Capital goods excl. manufacture of engines, windmills and pumps (MIG)"       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[39] "Intermediate goods (MIG)"                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40] "Durable consumer goods (MIG)"                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[41] "Non-durable consumer goods (MIG)"                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[42] "Non-durable consumer goods excl. pharmaceuticals (MIG)"                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[43] "Energy (MIG)"                                        </t>
-  </si>
-  <si>
-    <t>49.4 Freight transport by road and removal services</t>
-  </si>
-  <si>
-    <t>49.41 Freight transport by road</t>
-  </si>
-  <si>
-    <t>49.42 Removal services</t>
-  </si>
-  <si>
-    <t>Sum of (50.1 and 50.2) Sea and coastal water transport</t>
-  </si>
-  <si>
-    <t>51 Air transport</t>
-  </si>
-  <si>
-    <t>51.1 Passenger air transport</t>
-  </si>
-  <si>
-    <t>51.2 Freight air transport and space transport</t>
-  </si>
-  <si>
-    <t>52 Warehousing and support activities for transportation</t>
-  </si>
-  <si>
-    <t>52.1 Warehousing and storage</t>
-  </si>
-  <si>
-    <t>52.2 Support activities for transportation</t>
-  </si>
-  <si>
-    <t>52.21 Service activities incidental to land transportation</t>
-  </si>
-  <si>
-    <t>52.22 Service activities incidental to water transportation</t>
-  </si>
-  <si>
-    <t>52.23 Service activities incidental to air transportation</t>
-  </si>
-  <si>
-    <t>52.24 Cargo handling</t>
-  </si>
-  <si>
-    <t>52.29 Other transportation support activities</t>
-  </si>
-  <si>
-    <t>53 Postal and Courier activities</t>
-  </si>
-  <si>
-    <t>53.1 Postal activities under universal service obligation</t>
-  </si>
-  <si>
-    <t>53.2 Other postal and courier activities</t>
-  </si>
-  <si>
-    <t>61 Telecommunications</t>
-  </si>
-  <si>
-    <t>62 Computer programming, consultancy and related activities</t>
-  </si>
-  <si>
-    <t>63 Information service activities</t>
-  </si>
-  <si>
-    <t>68 Real estate activities</t>
-  </si>
-  <si>
-    <t>68.2 Rental and operating of own or leased real estate</t>
-  </si>
-  <si>
-    <t>68.31 Real estate agencies</t>
-  </si>
-  <si>
-    <t>68.32 Management of real estate on a fee or contract basis</t>
-  </si>
-  <si>
-    <t>69 Legal and accounting activities</t>
-  </si>
-  <si>
-    <t>69.1 Legal activities</t>
-  </si>
-  <si>
-    <t>69.2 Accounting, bookkeeping and auditing activities; tax consultancy</t>
-  </si>
-  <si>
-    <t>Sum (69 og 70.22) Legal activities etc.</t>
-  </si>
-  <si>
-    <t>70.22 Business and other management consultancy activities</t>
-  </si>
-  <si>
-    <t>71 Architectural and engineering activities</t>
-  </si>
-  <si>
-    <t>71.1 Architectural activities</t>
-  </si>
-  <si>
-    <t>71.2 Engineering activities and related technical consultancy</t>
-  </si>
-  <si>
-    <t>71.2 Technical testing and analysis</t>
-  </si>
-  <si>
-    <t>73 Advertising and market research</t>
-  </si>
-  <si>
-    <t>78 Employment activities</t>
-  </si>
-  <si>
-    <t>80 Security and investigation activities</t>
-  </si>
-  <si>
-    <t>81.2 Cleaning activities</t>
+    <t>CA Manufacture of food products, beverages and tobacco</t>
+  </si>
+  <si>
+    <t>B Mining and quarrying</t>
+  </si>
+  <si>
+    <t>10001 Production of meat and meat products</t>
+  </si>
+  <si>
+    <t>10002 Processing and preserving of fish</t>
+  </si>
+  <si>
+    <t>10003 Manufacture of dairy products</t>
+  </si>
+  <si>
+    <t>10004 Manufacture of grain mill and bakery products</t>
+  </si>
+  <si>
+    <t>10005 Other manufacture of food products</t>
+  </si>
+  <si>
+    <t>11000 Manufacture of beverages</t>
+  </si>
+  <si>
+    <t>12000 Manufacture of tobacco products</t>
+  </si>
+  <si>
+    <t>CB Textiles and leather products</t>
+  </si>
+  <si>
+    <t>CC Wood and paper products and printing</t>
+  </si>
+  <si>
+    <t>CDE Manufacture of chemicals and oil refineries etc.</t>
+  </si>
+  <si>
+    <t>CE Manufacture of chemicals</t>
+  </si>
+  <si>
+    <t>CF Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>22000 Manufacture of rubber and plastic products</t>
+  </si>
+  <si>
+    <t>23001 Manufacture of glass and ceramic products</t>
+  </si>
+  <si>
+    <t>23002 Manufacture of concrete and bricks</t>
+  </si>
+  <si>
+    <t>CH Basic metals and fabricated metal products</t>
+  </si>
+  <si>
+    <t>CI Manufacture of electronic components</t>
+  </si>
+  <si>
+    <t>CJ Electrical equipment</t>
+  </si>
+  <si>
+    <t>28001 Manufacture of engines, windmills and pumps</t>
+  </si>
+  <si>
+    <t>28002 Manufacture of other machinery</t>
+  </si>
+  <si>
+    <t>29000 Manufacture of motor vehicles and related parts</t>
+  </si>
+  <si>
+    <t>30000 Manufacture of ships and other transport equipment</t>
+  </si>
+  <si>
+    <t>CM Manufacture of furniture and other manufacturing</t>
+  </si>
+  <si>
+    <t>D Electricity, gas, steam and air conditioning supply</t>
+  </si>
+  <si>
+    <t>BCD Mining and quarrying and manufacturing and energy supply</t>
   </si>
 </sst>
 </file>
@@ -670,7 +508,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,12 +518,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -714,16 +546,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1041,1042 +864,1081 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8EE2BF-E3D1-42D8-8DDC-51452F7B04F5}">
-  <dimension ref="B2:I120"/>
+  <dimension ref="B2:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51:D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I50" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I51" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+      <c r="D51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I52" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I53" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I54" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I55" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I56" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+      <c r="D56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I57" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+      <c r="D57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I58" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+      <c r="D58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+      <c r="D59" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C60" s="1"/>
+      <c r="D60" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="1"/>
+      <c r="D61" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="1"/>
+      <c r="D62" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="1"/>
+      <c r="D63" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="1"/>
+      <c r="D64" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+      <c r="D65" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I66" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="1"/>
+      <c r="D66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I67" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C67" s="1"/>
+      <c r="D67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I68" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C68" s="1"/>
+      <c r="D68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I69" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="1"/>
+      <c r="D69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I70" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C70" s="1"/>
+      <c r="D70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I71" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="1"/>
+      <c r="D71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C72" t="s">
-        <v>180</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C72" s="1"/>
+      <c r="D72" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C73" t="s">
-        <v>181</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C73" s="1"/>
+      <c r="D73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C74" t="s">
-        <v>182</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="1"/>
+      <c r="D74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I75" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="1"/>
+      <c r="D75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I76" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="1"/>
+      <c r="D76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I77" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C77" s="1"/>
+      <c r="D77" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I78" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C78" s="1"/>
+      <c r="D78" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C79" s="1"/>
+      <c r="D79" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="1"/>
+      <c r="D80" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C81" s="1"/>
+      <c r="D81" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+      <c r="D82" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C83" s="1"/>
+      <c r="D83" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C84" s="1"/>
+      <c r="D84" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C85" s="1"/>
+      <c r="D85" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C86" s="1"/>
+      <c r="D86" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I87" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C87" s="1"/>
+      <c r="D87" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C88" s="1"/>
+      <c r="D88" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C89" s="1"/>
+      <c r="D89" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C90" s="1"/>
+      <c r="D90" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C91" s="1"/>
+      <c r="D91" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C92" s="1"/>
+      <c r="D92" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C93" s="1"/>
+      <c r="D93" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="1"/>
+      <c r="D94" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C95" s="1"/>
+      <c r="D95" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C96" s="1"/>
+      <c r="D96" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C97" s="1"/>
+      <c r="D97" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C98" s="1"/>
+      <c r="D98" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C99" s="1"/>
+      <c r="D99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C100" s="1"/>
+      <c r="D100" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C101" s="1"/>
+      <c r="D101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C102" s="1"/>
+      <c r="D102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C103" s="1"/>
+      <c r="D103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C104" s="1"/>
+      <c r="D104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C105" s="1"/>
+      <c r="D105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C106" s="1"/>
+      <c r="D106" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C107" s="1"/>
+      <c r="D107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C108" s="1"/>
+      <c r="D108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C109" s="1"/>
+      <c r="D109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C110" s="1"/>
+      <c r="D110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C111" s="1"/>
+      <c r="D111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C112" s="1"/>
+      <c r="D112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C113" s="1"/>
+      <c r="D113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C114" s="1"/>
+      <c r="D114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C115" s="1"/>
+      <c r="D115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C116" s="1"/>
+      <c r="D116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C117" s="1"/>
+      <c r="D117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C118" s="1"/>
+      <c r="D118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C119" s="1"/>
+      <c r="D119" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
         <v>118</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
